--- a/demo/src/main/resources/01 СВОДНАЯ таблица Заказ в Петрович Питер 16-17.04.2024.xlsx
+++ b/demo/src/main/resources/01 СВОДНАЯ таблица Заказ в Петрович Питер 16-17.04.2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726CDDB-8CA8-407C-A421-B0ACB67A32F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B5B896-B94E-4DCF-A093-69D5E70D38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="3855" windowWidth="15750" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2625" windowWidth="15750" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
